--- a/dataset/sql_datasets/breaks_record.xlsx
+++ b/dataset/sql_datasets/breaks_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817F77C4-C473-4D74-B83C-F48CD82C350D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879429FB-127D-47FD-8EDB-2271E241ECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29295" windowHeight="26325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>idRecord</t>
-  </si>
-  <si>
-    <t>idParticipant</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,10 +341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -361,72 +354,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1">
         <v>1</v>
+      </c>
+      <c r="B1">
+        <v>3590</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3590</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3561</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>3616</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>3590</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>4989</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>4982</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>4855</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>4781</v>
@@ -434,7 +427,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>4781</v>
@@ -442,55 +435,55 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>4781</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>4220</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>644</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>4476</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>4694</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>4181</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>4875</v>
@@ -498,7 +491,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>4875</v>
@@ -506,95 +499,95 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>4875</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>4826</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>4573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>560</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>535</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>567</v>
@@ -602,103 +595,103 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>567</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>670</v>
+        <v>714</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>696</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>528</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>622</v>
@@ -706,7 +699,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>622</v>
@@ -714,519 +707,519 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>622</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>578</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>634</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>4118</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>4111</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>4100</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>4154</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>4139</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>4171</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>4161</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>5774</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>5773</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>5774</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>5773</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>5776</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>5775</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>5737</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>5738</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>5740</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>5739</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>5810</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>5688</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>5680</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>5687</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>5679</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>5596</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>5696</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>5692</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>5691</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>5692</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>5691</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>5620</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>5625</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>5626</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>5619</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>5732</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>306</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>139</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>76</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>353</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>329</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>182</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>286</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>254</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>162</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>56</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>237</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>289</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>69</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>209</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -1234,23 +1227,23 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>2358</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>2379</v>
@@ -1258,15 +1251,15 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
-        <v>2379</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>5085</v>
@@ -1274,7 +1267,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>5085</v>
@@ -1282,159 +1275,159 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>5085</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>5070</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>5085</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>5116</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>5034</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>5070</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>5106</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>5085</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>5118</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>5085</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>5128</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>5097</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>5127</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>5122</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>5097</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>5122</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>5052</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>5051</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>5052</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>5044</v>
@@ -1442,55 +1435,55 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>5044</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>5020</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>5041</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>5039</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>5041</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>5016</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>5020</v>
@@ -1498,103 +1491,103 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>5020</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>5043</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>5017</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>5038</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>5041</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>5038</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>5041</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>5052</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>5155</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>5134</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>5157</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>5043</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>5041</v>
@@ -1602,7 +1595,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>5041</v>
@@ -1610,23 +1603,23 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>5041</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>1881</v>
+        <v>789</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>789</v>
@@ -1634,255 +1627,255 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>789</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>1935</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
-        <v>1929</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
-        <v>1881</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
-        <v>1866</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165">
-        <v>1888</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166">
-        <v>1895</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167">
-        <v>1867</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168">
-        <v>1881</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169">
-        <v>1883</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171">
-        <v>1864</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173">
-        <v>1895</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176">
-        <v>1864</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177">
-        <v>1916</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178">
-        <v>1491</v>
+        <v>730</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179">
-        <v>730</v>
+        <v>784</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180">
-        <v>784</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181">
-        <v>1918</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182">
-        <v>1491</v>
+        <v>730</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183">
-        <v>730</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184">
-        <v>1919</v>
+        <v>784</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185">
-        <v>784</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186">
-        <v>1491</v>
+        <v>730</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187">
-        <v>730</v>
+        <v>784</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188">
-        <v>784</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189">
-        <v>1899</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190">
-        <v>1915</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>3766</v>
@@ -1890,7 +1883,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>3766</v>
@@ -1898,7 +1891,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>3766</v>
@@ -1906,7 +1899,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>3766</v>
@@ -1914,7 +1907,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>3766</v>
@@ -1922,7 +1915,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>3766</v>
@@ -1930,7 +1923,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>3766</v>
@@ -1938,31 +1931,31 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198">
-        <v>3766</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199">
-        <v>3864</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200">
-        <v>3856</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>3864</v>
@@ -1970,23 +1963,23 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202">
-        <v>3864</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203">
-        <v>3856</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204">
         <v>3700</v>
@@ -1994,39 +1987,39 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205">
-        <v>3700</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206">
-        <v>3721</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207">
-        <v>3725</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208">
-        <v>3721</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>3808</v>
@@ -2034,7 +2027,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>3808</v>
@@ -2042,7 +2035,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211">
         <v>3808</v>
@@ -2050,7 +2043,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212">
         <v>3808</v>
@@ -2058,23 +2051,23 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213">
-        <v>3808</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214">
-        <v>3738</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>3737</v>
@@ -2082,7 +2075,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216">
         <v>3737</v>
@@ -2090,7 +2083,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217">
         <v>3737</v>
@@ -2098,15 +2091,15 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218">
-        <v>3737</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>3835</v>
@@ -2114,15 +2107,15 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220">
-        <v>3835</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221">
         <v>3748</v>
@@ -2130,7 +2123,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>3748</v>
@@ -2138,7 +2131,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>3748</v>
@@ -2146,7 +2139,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224">
         <v>3748</v>
@@ -2154,23 +2147,23 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225">
-        <v>3748</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226">
-        <v>3822</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227">
         <v>3819</v>
@@ -2178,7 +2171,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228">
         <v>3819</v>
@@ -2186,7 +2179,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229">
         <v>3819</v>
@@ -2194,7 +2187,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230">
         <v>3819</v>
@@ -2202,7 +2195,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231">
         <v>3819</v>
@@ -2210,7 +2203,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232">
         <v>3819</v>
@@ -2218,15 +2211,15 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233">
-        <v>3819</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234">
         <v>3703</v>
@@ -2234,15 +2227,15 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235">
-        <v>3703</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236">
         <v>3706</v>
@@ -2250,23 +2243,23 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237">
-        <v>3706</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238">
-        <v>3701</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239">
         <v>3703</v>
@@ -2274,15 +2267,15 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240">
-        <v>3703</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241">
         <v>3706</v>
@@ -2290,15 +2283,15 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242">
-        <v>3706</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243">
         <v>3787</v>
@@ -2306,17 +2299,9 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244">
-        <v>3787</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>244</v>
-      </c>
-      <c r="B245">
         <v>3787</v>
       </c>
     </row>
